--- a/GSS Assignment-1.xlsx
+++ b/GSS Assignment-1.xlsx
@@ -600,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border/>
     <border>
       <left style="medium">
@@ -623,6 +623,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -801,43 +812,43 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="6" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="6" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="6" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="6" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="7" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="6" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="7" fontId="6" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -870,7 +881,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Y vs X</a:t>
+              <a:t>Y vs. X</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -929,11 +940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="786494956"/>
-        <c:axId val="604297888"/>
+        <c:axId val="1297750667"/>
+        <c:axId val="1852164647"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="786494956"/>
+        <c:axId val="1297750667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,10 +1019,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604297888"/>
+        <c:crossAx val="1852164647"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="604297888"/>
+        <c:axId val="1852164647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="786494956"/>
+        <c:crossAx val="1297750667"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1117,11 +1128,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3305175"/>
+    <xdr:ext cx="4552950" cy="2819400"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -1375,7 +1386,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.14"/>
-    <col customWidth="1" min="2" max="3" width="13.71"/>
+    <col customWidth="1" min="2" max="2" width="15.86"/>
+    <col customWidth="1" min="3" max="3" width="13.71"/>
     <col customWidth="1" min="5" max="5" width="36.57"/>
   </cols>
   <sheetData>
@@ -1487,7 +1499,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>11.0</v>
       </c>
       <c r="C13" s="6">
@@ -1495,41 +1507,41 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9">
-        <f>COUNT($B2:$B13)</f>
+      <c r="B14" s="10">
+        <f t="shared" ref="B14:C14" si="1">COUNT(B2:B13)</f>
         <v>12</v>
       </c>
-      <c r="C14" s="10">
-        <f>COUNT($C2:$C13)</f>
+      <c r="C14" s="11">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9">
-        <f>sum($B$2:$B$13)</f>
+      <c r="B15" s="10">
+        <f t="shared" ref="B15:C15" si="2">SUM(B2:B13)</f>
         <v>165</v>
       </c>
       <c r="C15" s="11">
-        <f>sum($C$2:$C$13)</f>
+        <f t="shared" si="2"/>
         <v>697</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" ref="B16:C16" si="1">MODE(B2:B13)</f>
+        <f t="shared" ref="B16:C16" si="3">MODE(B2:B13)</f>
         <v>12</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
     </row>
@@ -1538,11 +1550,11 @@
         <v>8</v>
       </c>
       <c r="B17" s="14">
-        <f t="shared" ref="B17:C17" si="2">MEDIAN(B2:B13)</f>
+        <f t="shared" ref="B17:C17" si="4">MEDIAN(B2:B13)</f>
         <v>13.5</v>
       </c>
       <c r="C17" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
     </row>
@@ -1551,18 +1563,18 @@
         <v>9</v>
       </c>
       <c r="B18" s="17">
-        <f>sum(B2:B13)/COUNT(B2:B13)</f>
+        <f t="shared" ref="B18:C18" si="5">SUM(B2:B13)/COUNT(B2:B13)</f>
         <v>13.75</v>
       </c>
       <c r="C18" s="18">
-        <f>sum(C2:C13)/count(C2:C13)</f>
+        <f t="shared" si="5"/>
         <v>58.08333333</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" ref="F18:F19" si="4">COVAR($B$2:$B$13,$C$2:$C$13)</f>
+        <f t="array" ref="F18">SUM((C2:C13-AVERAGE(C2:C13)) * (B2:B13-AVERAGE(B2:B13))/(COUNT(B2:B13)))</f>
         <v>-42.47916667</v>
       </c>
     </row>
@@ -1571,110 +1583,107 @@
         <v>11</v>
       </c>
       <c r="B19" s="22">
-        <f t="shared" ref="B19:C19" si="3">AVERAGE(B2:B13)</f>
+        <f t="shared" ref="B19:C19" si="6">AVERAGE(B2:B13)</f>
         <v>13.75</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.08333333</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="20">
-        <f t="shared" si="4"/>
+      <c r="F19" s="25">
+        <f>COVAR(C2:C13,B2:B13)</f>
         <v>-42.47916667</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
-        <f t="shared" ref="B20:C20" si="5">min(B2:B13)</f>
+      <c r="B20" s="10">
+        <f t="shared" ref="B20:C20" si="7">MIN(B2:B13)</f>
         <v>7</v>
       </c>
-      <c r="C20" s="10">
-        <f t="shared" si="5"/>
+      <c r="C20" s="27">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="20">
-        <f t="shared" ref="F20:F21" si="7">CORREL($B$2:$B$13,$C$2:$C$13)</f>
-        <v>-0.4612511701</v>
-      </c>
+      <c r="F20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="12">
-        <f t="shared" ref="B21:C21" si="6">max(B2:B13)</f>
+        <f t="shared" ref="B21:C21" si="8">MAX(B2:B13)</f>
         <v>20</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="20">
-        <f t="shared" si="7"/>
+      <c r="F21" s="25">
+        <f>CORREL(C2:C13,B2:B13)</f>
         <v>-0.4612511701</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="12">
-        <f t="shared" ref="B22:C22" si="8">MAX(B2:B13)-min(B2:B13)</f>
+        <f t="shared" ref="B22:C22" si="9">MAX(B2:B13)-MIN(B2:B13)</f>
         <v>13</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="12">
-        <f t="shared" ref="B23:C23" si="9">QUARTILE(B2:B13,1)</f>
+        <f t="shared" ref="B23:C23" si="10">QUARTILE(B2:B13,1)</f>
         <v>10.75</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.75</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="12">
-        <f t="shared" ref="B24:C24" si="10">QUARTILE(B2:B13,2)</f>
+        <f t="shared" ref="B24:C24" si="11">QUARTILE(B2:B13,2)</f>
         <v>13.5</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="12">
-        <f t="shared" ref="B25:C25" si="11">QUARTILE(B2:B13,3)</f>
+        <f t="shared" ref="B25:C25" si="12">QUARTILE(B2:B13,3)</f>
         <v>16.5</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78.75</v>
       </c>
     </row>
@@ -1682,12 +1691,12 @@
       <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26">
-        <f t="shared" ref="B26:C26" si="12">B25-B23</f>
+      <c r="B26" s="28">
+        <f t="shared" ref="B26:C26" si="13">QUARTILE(B2:B13,3)-QUARTILE(B2:B13,1)</f>
         <v>5.75</v>
       </c>
-      <c r="C26" s="27">
-        <f t="shared" si="12"/>
+      <c r="C26" s="15">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
     </row>
@@ -1695,19 +1704,25 @@
       <c r="A27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17">
+        <f t="array" ref="B27">SUM((B2:B13-AVERAGE(B2:B13))^2)/(COUNT(B2:B13)-1)</f>
+        <v>17.47727273</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="array" ref="C27">SUM((C2:C13-AVERAGE(C2:C13))^2)/(COUNT(C2:C13)-1)</f>
+        <v>577.5378788</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="22">
-        <f t="shared" ref="B28:C28" si="13">var(B2:B13)</f>
+        <f>VAR((B2:B13))</f>
         <v>17.47727273</v>
       </c>
       <c r="C28" s="23">
-        <f t="shared" si="13"/>
+        <f>VAR(C2:C13)</f>
         <v>577.5378788</v>
       </c>
     </row>
@@ -1716,11 +1731,11 @@
         <v>24</v>
       </c>
       <c r="B29" s="17">
-        <f t="shared" ref="B29:C29" si="14">_xlfn.STDEV.S(B2:B13)</f>
+        <f t="array" ref="B29">SQRT(SUM((B2:B13-AVERAGE(B2:B13))^2)/(COUNT(B2:B13)-1))</f>
         <v>4.180582821</v>
       </c>
       <c r="C29" s="18">
-        <f t="shared" si="14"/>
+        <f t="array" ref="C29">SQRT(SUM((C2:C13-AVERAGE(C2:C13))^2)/(COUNT(C2:C13)-1))</f>
         <v>24.03201778</v>
       </c>
     </row>
@@ -1729,37 +1744,37 @@
         <v>25</v>
       </c>
       <c r="B30" s="22">
-        <f t="shared" ref="B30:C30" si="15">STDEV(B2:B13)</f>
+        <f t="shared" ref="B30:C30" si="14"> STDEV(B2:B13)</f>
         <v>4.180582821</v>
       </c>
       <c r="C30" s="23">
+        <f t="shared" si="14"/>
+        <v>24.03201778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" ref="B31:C31" si="15">SKEW(B2:B13)</f>
+        <v>-0.01287766638</v>
+      </c>
+      <c r="C31" s="11">
         <f t="shared" si="15"/>
-        <v>24.03201778</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12">
-        <f t="shared" ref="B31:C31" si="16">skew(B2:B13)</f>
-        <v>-0.01287766638</v>
-      </c>
-      <c r="C31" s="11">
+        <v>-0.191540125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" ref="B32:C32" si="16">KURT(B2:B13)</f>
+        <v>-1.183534705</v>
+      </c>
+      <c r="C32" s="11">
         <f t="shared" si="16"/>
-        <v>-0.191540125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12">
-        <f t="shared" ref="B32:C32" si="17">KURT(B2:B13)</f>
-        <v>-1.183534705</v>
-      </c>
-      <c r="C32" s="28">
-        <f t="shared" si="17"/>
         <v>-1.401790616</v>
       </c>
     </row>
